--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3602,28 +3602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1214.515609440821</v>
+        <v>1318.030771640602</v>
       </c>
       <c r="AB2" t="n">
-        <v>1661.753837484087</v>
+        <v>1803.387849172478</v>
       </c>
       <c r="AC2" t="n">
-        <v>1503.158383520764</v>
+        <v>1631.275043918199</v>
       </c>
       <c r="AD2" t="n">
-        <v>1214515.609440821</v>
+        <v>1318030.771640602</v>
       </c>
       <c r="AE2" t="n">
-        <v>1661753.837484087</v>
+        <v>1803387.849172478</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.262775604486688e-06</v>
+        <v>1.82049865213198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.06901041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1503158.383520764</v>
+        <v>1631275.043918199</v>
       </c>
     </row>
     <row r="3">
@@ -3708,28 +3708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>598.9283750404495</v>
+        <v>667.8247252037253</v>
       </c>
       <c r="AB3" t="n">
-        <v>819.4802255854192</v>
+        <v>913.7472513712654</v>
       </c>
       <c r="AC3" t="n">
-        <v>741.2701830032662</v>
+        <v>826.5404961527131</v>
       </c>
       <c r="AD3" t="n">
-        <v>598928.3750404496</v>
+        <v>667824.7252037253</v>
       </c>
       <c r="AE3" t="n">
-        <v>819480.2255854192</v>
+        <v>913747.2513712654</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.977305859653906e-06</v>
+        <v>2.850611493889172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.37109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>741270.1830032662</v>
+        <v>826540.4961527131</v>
       </c>
     </row>
     <row r="4">
@@ -3814,28 +3814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.7034000300587</v>
+        <v>550.1369745984431</v>
       </c>
       <c r="AB4" t="n">
-        <v>670.0337961103895</v>
+        <v>752.721678975996</v>
       </c>
       <c r="AC4" t="n">
-        <v>606.0867110079522</v>
+        <v>680.8829783860378</v>
       </c>
       <c r="AD4" t="n">
-        <v>489703.4000300587</v>
+        <v>550136.9745984431</v>
       </c>
       <c r="AE4" t="n">
-        <v>670033.7961103895</v>
+        <v>752721.6789759961</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.248627553305538e-06</v>
+        <v>3.24176632443228e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>606086.7110079522</v>
+        <v>680882.9783860379</v>
       </c>
     </row>
     <row r="5">
@@ -3920,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>438.5916748996363</v>
+        <v>498.9399086134491</v>
       </c>
       <c r="AB5" t="n">
-        <v>600.1004788967749</v>
+        <v>682.6715946401839</v>
       </c>
       <c r="AC5" t="n">
-        <v>542.8277314371778</v>
+        <v>617.5183757833248</v>
       </c>
       <c r="AD5" t="n">
-        <v>438591.6748996363</v>
+        <v>498939.9086134491</v>
       </c>
       <c r="AE5" t="n">
-        <v>600100.4788967749</v>
+        <v>682671.594640184</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.401187652213579e-06</v>
+        <v>3.461706790057689e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH5" t="n">
-        <v>542827.7314371779</v>
+        <v>617518.3757833248</v>
       </c>
     </row>
     <row r="6">
@@ -4026,28 +4026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>421.4508597643576</v>
+        <v>473.165815191238</v>
       </c>
       <c r="AB6" t="n">
-        <v>576.6476594292926</v>
+        <v>647.4063429471634</v>
       </c>
       <c r="AC6" t="n">
-        <v>521.6132161434333</v>
+        <v>585.6187902167944</v>
       </c>
       <c r="AD6" t="n">
-        <v>421450.8597643576</v>
+        <v>473165.815191238</v>
       </c>
       <c r="AE6" t="n">
-        <v>576647.6594292927</v>
+        <v>647406.3429471634</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.467010705904012e-06</v>
+        <v>3.556601544198395e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.32096354166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>521613.2161434334</v>
+        <v>585618.7902167945</v>
       </c>
     </row>
     <row r="7">
@@ -4132,28 +4132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>393.9973723012189</v>
+        <v>454.2602651604602</v>
       </c>
       <c r="AB7" t="n">
-        <v>539.0845867198391</v>
+        <v>621.5389353410507</v>
       </c>
       <c r="AC7" t="n">
-        <v>487.6351103732664</v>
+        <v>562.2201316874745</v>
       </c>
       <c r="AD7" t="n">
-        <v>393997.372301219</v>
+        <v>454260.2651604602</v>
       </c>
       <c r="AE7" t="n">
-        <v>539084.5867198391</v>
+        <v>621538.9353410506</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.534981178367325e-06</v>
+        <v>3.654592155566387e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.98893229166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>487635.1103732664</v>
+        <v>562220.1316874744</v>
       </c>
     </row>
     <row r="8">
@@ -4238,28 +4238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>379.002424583783</v>
+        <v>430.8026313566839</v>
       </c>
       <c r="AB8" t="n">
-        <v>518.5678377224384</v>
+        <v>589.4431658929585</v>
       </c>
       <c r="AC8" t="n">
-        <v>469.0764511047395</v>
+        <v>533.1875374288129</v>
       </c>
       <c r="AD8" t="n">
-        <v>379002.424583783</v>
+        <v>430802.6313566839</v>
       </c>
       <c r="AE8" t="n">
-        <v>518567.8377224384</v>
+        <v>589443.1658929585</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.586892693050845e-06</v>
+        <v>3.729431138973808e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.748046875</v>
       </c>
       <c r="AH8" t="n">
-        <v>469076.4511047394</v>
+        <v>533187.5374288129</v>
       </c>
     </row>
     <row r="9">
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>370.2149753141904</v>
+        <v>422.0151820870914</v>
       </c>
       <c r="AB9" t="n">
-        <v>506.5444619568808</v>
+        <v>577.4197901274009</v>
       </c>
       <c r="AC9" t="n">
-        <v>458.2005694473328</v>
+        <v>522.3116557714062</v>
       </c>
       <c r="AD9" t="n">
-        <v>370214.9753141904</v>
+        <v>422015.1820870914</v>
       </c>
       <c r="AE9" t="n">
-        <v>506544.4619568808</v>
+        <v>577419.7901274009</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.610514299552518e-06</v>
+        <v>3.763485568473948e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.64388020833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>458200.5694473328</v>
+        <v>522311.6557714063</v>
       </c>
     </row>
     <row r="10">
@@ -4450,28 +4450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>357.3501443887646</v>
+        <v>408.9797589610733</v>
       </c>
       <c r="AB10" t="n">
-        <v>488.942232728429</v>
+        <v>559.5841491241021</v>
       </c>
       <c r="AC10" t="n">
-        <v>442.2782722715606</v>
+        <v>506.1782233129829</v>
       </c>
       <c r="AD10" t="n">
-        <v>357350.1443887646</v>
+        <v>408979.7589610734</v>
       </c>
       <c r="AE10" t="n">
-        <v>488942.232728429</v>
+        <v>559584.1491241021</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.646086758355433e-06</v>
+        <v>3.814769116456372e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.484375</v>
       </c>
       <c r="AH10" t="n">
-        <v>442278.2722715606</v>
+        <v>506178.2233129829</v>
       </c>
     </row>
     <row r="11">
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>348.0366879927504</v>
+        <v>399.6663025650592</v>
       </c>
       <c r="AB11" t="n">
-        <v>476.1991508067047</v>
+        <v>546.8410672023778</v>
       </c>
       <c r="AC11" t="n">
-        <v>430.7513722034178</v>
+        <v>494.6513232448402</v>
       </c>
       <c r="AD11" t="n">
-        <v>348036.6879927504</v>
+        <v>399666.3025650592</v>
       </c>
       <c r="AE11" t="n">
-        <v>476199.1508067047</v>
+        <v>546841.0672023777</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.6641064028409e-06</v>
+        <v>3.840747396667941e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.40950520833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>430751.3722034178</v>
+        <v>494651.3232448403</v>
       </c>
     </row>
     <row r="12">
@@ -4662,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>347.959028069718</v>
+        <v>399.5886426420268</v>
       </c>
       <c r="AB12" t="n">
-        <v>476.0928930738978</v>
+        <v>546.7348094695709</v>
       </c>
       <c r="AC12" t="n">
-        <v>430.6552555594963</v>
+        <v>494.5552066009187</v>
       </c>
       <c r="AD12" t="n">
-        <v>347959.028069718</v>
+        <v>399588.6426420268</v>
       </c>
       <c r="AE12" t="n">
-        <v>476092.8930738978</v>
+        <v>546734.8094695709</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.665880357479365e-06</v>
+        <v>3.843304843942655e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.39973958333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>430655.2555594963</v>
+        <v>494555.2066009187</v>
       </c>
     </row>
     <row r="13">
@@ -4768,28 +4768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>348.4818621708519</v>
+        <v>400.1114767431606</v>
       </c>
       <c r="AB13" t="n">
-        <v>476.8082577568817</v>
+        <v>547.4501741525547</v>
       </c>
       <c r="AC13" t="n">
-        <v>431.3023468411568</v>
+        <v>495.2022978825793</v>
       </c>
       <c r="AD13" t="n">
-        <v>348481.8621708518</v>
+        <v>400111.4767431606</v>
       </c>
       <c r="AE13" t="n">
-        <v>476808.2577568817</v>
+        <v>547450.1741525547</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.667467580050624e-06</v>
+        <v>3.845593086241084e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.39322916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>431302.3468411568</v>
+        <v>495202.2978825793</v>
       </c>
     </row>
   </sheetData>
@@ -5065,28 +5065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>856.2162962296222</v>
+        <v>940.305280433632</v>
       </c>
       <c r="AB2" t="n">
-        <v>1171.512910098432</v>
+        <v>1286.567168030521</v>
       </c>
       <c r="AC2" t="n">
-        <v>1059.705362187334</v>
+        <v>1163.779003222049</v>
       </c>
       <c r="AD2" t="n">
-        <v>856216.2962296222</v>
+        <v>940305.280433632</v>
       </c>
       <c r="AE2" t="n">
-        <v>1171512.910098433</v>
+        <v>1286567.168030521</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.550009808982215e-06</v>
+        <v>2.269156050604019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.283203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1059705.362187334</v>
+        <v>1163779.003222049</v>
       </c>
     </row>
     <row r="3">
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>489.4100195767667</v>
+        <v>548.2467331157674</v>
       </c>
       <c r="AB3" t="n">
-        <v>669.6323800311631</v>
+        <v>750.1353671878304</v>
       </c>
       <c r="AC3" t="n">
-        <v>605.7236055159362</v>
+        <v>678.5435005650232</v>
       </c>
       <c r="AD3" t="n">
-        <v>489410.0195767667</v>
+        <v>548246.7331157674</v>
       </c>
       <c r="AE3" t="n">
-        <v>669632.3800311631</v>
+        <v>750135.3671878304</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.212395605966264e-06</v>
+        <v>3.238863939128593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.21223958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>605723.6055159363</v>
+        <v>678543.5005650233</v>
       </c>
     </row>
     <row r="4">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>408.1932966239067</v>
+        <v>467.0299206543562</v>
       </c>
       <c r="AB4" t="n">
-        <v>558.5080766581209</v>
+        <v>639.0109413452396</v>
       </c>
       <c r="AC4" t="n">
-        <v>505.2048496928779</v>
+        <v>578.0246339607382</v>
       </c>
       <c r="AD4" t="n">
-        <v>408193.2966239067</v>
+        <v>467029.9206543562</v>
       </c>
       <c r="AE4" t="n">
-        <v>558508.0766581208</v>
+        <v>639010.9413452396</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.456468062801886e-06</v>
+        <v>3.596176834185695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.79947916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>505204.8496928778</v>
+        <v>578024.6339607382</v>
       </c>
     </row>
     <row r="5">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>388.7968367449185</v>
+        <v>439.2161267289161</v>
       </c>
       <c r="AB5" t="n">
-        <v>531.9689845402725</v>
+        <v>600.9548814384658</v>
       </c>
       <c r="AC5" t="n">
-        <v>481.1986112789072</v>
+        <v>543.6005909994514</v>
       </c>
       <c r="AD5" t="n">
-        <v>388796.8367449185</v>
+        <v>439216.1267289161</v>
       </c>
       <c r="AE5" t="n">
-        <v>531968.9845402725</v>
+        <v>600954.8814384658</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.537986524839584e-06</v>
+        <v>3.715516795969704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.38932291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>481198.6112789072</v>
+        <v>543600.5909994513</v>
       </c>
     </row>
     <row r="6">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>351.3248382388808</v>
+        <v>401.8293795688991</v>
       </c>
       <c r="AB6" t="n">
-        <v>480.6981430364111</v>
+        <v>549.800684587254</v>
       </c>
       <c r="AC6" t="n">
-        <v>434.8209869290964</v>
+        <v>497.3284789003528</v>
       </c>
       <c r="AD6" t="n">
-        <v>351324.8382388809</v>
+        <v>401829.3795688991</v>
       </c>
       <c r="AE6" t="n">
-        <v>480698.1430364111</v>
+        <v>549800.684587254</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.654855409988418e-06</v>
+        <v>3.886608447342515e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.84244791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>434820.9869290963</v>
+        <v>497328.4789003528</v>
       </c>
     </row>
     <row r="7">
@@ -5595,28 +5595,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>333.8477065874312</v>
+        <v>384.3522479174493</v>
       </c>
       <c r="AB7" t="n">
-        <v>456.7851604742662</v>
+        <v>525.887702025109</v>
       </c>
       <c r="AC7" t="n">
-        <v>413.1902258606007</v>
+        <v>475.6977178318573</v>
       </c>
       <c r="AD7" t="n">
-        <v>333847.7065874311</v>
+        <v>384352.2479174493</v>
       </c>
       <c r="AE7" t="n">
-        <v>456785.1604742662</v>
+        <v>525887.702025109</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.718408902904065e-06</v>
+        <v>3.979648370155167e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.56575520833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>413190.2258606007</v>
+        <v>475697.7178318573</v>
       </c>
     </row>
     <row r="8">
@@ -5701,28 +5701,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>322.4391277469657</v>
+        <v>372.7730768763917</v>
       </c>
       <c r="AB8" t="n">
-        <v>441.1754395937649</v>
+        <v>510.0445693697606</v>
       </c>
       <c r="AC8" t="n">
-        <v>399.0702748325536</v>
+        <v>461.3666315211589</v>
       </c>
       <c r="AD8" t="n">
-        <v>322439.1277469657</v>
+        <v>372773.0768763917</v>
       </c>
       <c r="AE8" t="n">
-        <v>441175.4395937649</v>
+        <v>510044.5693697606</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.747867588830011e-06</v>
+        <v>4.022774778145835e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.44205729166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>399070.2748325536</v>
+        <v>461366.6315211589</v>
       </c>
     </row>
     <row r="9">
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>318.9187755623255</v>
+        <v>369.2527246917514</v>
       </c>
       <c r="AB9" t="n">
-        <v>436.3587384277628</v>
+        <v>505.2278682037584</v>
       </c>
       <c r="AC9" t="n">
-        <v>394.7132728655521</v>
+        <v>457.0096295541575</v>
       </c>
       <c r="AD9" t="n">
-        <v>318918.7755623255</v>
+        <v>369252.7246917514</v>
       </c>
       <c r="AE9" t="n">
-        <v>436358.7384277628</v>
+        <v>505227.8682037584</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.759457891489399e-06</v>
+        <v>4.03974254522413e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.39322916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>394713.2728655521</v>
+        <v>457009.6295541575</v>
       </c>
     </row>
   </sheetData>
@@ -6104,28 +6104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.0949202096625</v>
+        <v>420.3806900033209</v>
       </c>
       <c r="AB2" t="n">
-        <v>500.9072207988627</v>
+        <v>575.1834059496845</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.1013386735183</v>
+        <v>520.2887089608263</v>
       </c>
       <c r="AD2" t="n">
-        <v>366094.9202096625</v>
+        <v>420380.6900033209</v>
       </c>
       <c r="AE2" t="n">
-        <v>500907.2207988627</v>
+        <v>575183.4059496844</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.46914230263382e-06</v>
+        <v>3.820067915606671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.208984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>453101.3386735183</v>
+        <v>520288.7089608263</v>
       </c>
     </row>
     <row r="3">
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.3987925999471</v>
+        <v>306.0025250053862</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.9208719023107</v>
+        <v>418.6861545910002</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.0477220225258</v>
+        <v>378.727335626543</v>
       </c>
       <c r="AD3" t="n">
-        <v>259398.7925999471</v>
+        <v>306002.5250053863</v>
       </c>
       <c r="AE3" t="n">
-        <v>354920.8719023107</v>
+        <v>418686.1545910002</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.953594273403747e-06</v>
+        <v>4.569574911706714e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.87825520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>321047.7220225257</v>
+        <v>378727.335626543</v>
       </c>
     </row>
     <row r="4">
@@ -6316,28 +6316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>255.5898085222262</v>
+        <v>302.1935409276684</v>
       </c>
       <c r="AB4" t="n">
-        <v>349.7092518464897</v>
+        <v>413.4745345353489</v>
       </c>
       <c r="AC4" t="n">
-        <v>316.3334916703828</v>
+        <v>374.0131052744484</v>
       </c>
       <c r="AD4" t="n">
-        <v>255589.8085222262</v>
+        <v>302193.5409276685</v>
       </c>
       <c r="AE4" t="n">
-        <v>349709.2518464897</v>
+        <v>413474.5345353489</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.974071664826725e-06</v>
+        <v>4.601255963822178e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>316333.4916703828</v>
+        <v>374013.1052744484</v>
       </c>
     </row>
   </sheetData>
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>494.5625086583332</v>
+        <v>566.5850165548912</v>
       </c>
       <c r="AB2" t="n">
-        <v>676.6822429043378</v>
+        <v>775.2266156172066</v>
       </c>
       <c r="AC2" t="n">
-        <v>612.1006393710398</v>
+        <v>701.2400754600882</v>
       </c>
       <c r="AD2" t="n">
-        <v>494562.5086583332</v>
+        <v>566585.0165548912</v>
       </c>
       <c r="AE2" t="n">
-        <v>676682.2429043378</v>
+        <v>775226.6156172066</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.099024509614813e-06</v>
+        <v>3.172243080987398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>612100.6393710398</v>
+        <v>701240.0754600882</v>
       </c>
     </row>
     <row r="3">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>337.8956393068663</v>
+        <v>393.9605570345068</v>
       </c>
       <c r="AB3" t="n">
-        <v>462.3237206031853</v>
+        <v>539.0342144477486</v>
       </c>
       <c r="AC3" t="n">
-        <v>418.2001935842337</v>
+        <v>487.5895455601262</v>
       </c>
       <c r="AD3" t="n">
-        <v>337895.6393068663</v>
+        <v>393960.5570345068</v>
       </c>
       <c r="AE3" t="n">
-        <v>462323.7206031853</v>
+        <v>539034.2144477486</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.647752697067905e-06</v>
+        <v>4.001532680997956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.67578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>418200.1935842337</v>
+        <v>487589.5455601262</v>
       </c>
     </row>
     <row r="4">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.8481266166027</v>
+        <v>342.9769196870702</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.42421461814</v>
+        <v>469.2761525896494</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.9219737844253</v>
+        <v>424.4890952197093</v>
       </c>
       <c r="AD4" t="n">
-        <v>294848.1266166026</v>
+        <v>342976.9196870702</v>
       </c>
       <c r="AE4" t="n">
-        <v>403424.21461814</v>
+        <v>469276.1525896494</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.825919233693035e-06</v>
+        <v>4.270794693177258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.87825520833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>364921.9737844253</v>
+        <v>424489.0952197093</v>
       </c>
     </row>
     <row r="5">
@@ -6931,28 +6931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>277.9434607378828</v>
+        <v>326.0722538083503</v>
       </c>
       <c r="AB5" t="n">
-        <v>380.2945049816515</v>
+        <v>446.1464429531608</v>
       </c>
       <c r="AC5" t="n">
-        <v>343.9997311728919</v>
+        <v>403.5668526081759</v>
       </c>
       <c r="AD5" t="n">
-        <v>277943.4607378828</v>
+        <v>326072.2538083503</v>
       </c>
       <c r="AE5" t="n">
-        <v>380294.5049816515</v>
+        <v>446146.4429531608</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.903557776562666e-06</v>
+        <v>4.388129354734558e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.55924479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>343999.7311728919</v>
+        <v>403566.8526081758</v>
       </c>
     </row>
     <row r="6">
@@ -7037,28 +7037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>278.9592065431923</v>
+        <v>327.0879996136598</v>
       </c>
       <c r="AB6" t="n">
-        <v>381.6842932040183</v>
+        <v>447.5362311755277</v>
       </c>
       <c r="AC6" t="n">
-        <v>345.256879957896</v>
+        <v>404.82400139318</v>
       </c>
       <c r="AD6" t="n">
-        <v>278959.2065431923</v>
+        <v>327087.9996136598</v>
       </c>
       <c r="AE6" t="n">
-        <v>381684.2932040183</v>
+        <v>447536.2311755277</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.904382621639634e-06</v>
+        <v>4.389375938124276e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.55598958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>345256.879957896</v>
+        <v>404824.00139318</v>
       </c>
     </row>
   </sheetData>
@@ -7334,28 +7334,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.0074914286038</v>
+        <v>327.3604507600018</v>
       </c>
       <c r="AB2" t="n">
-        <v>385.8550910650763</v>
+        <v>447.909010853649</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.0296227248462</v>
+        <v>405.161203502021</v>
       </c>
       <c r="AD2" t="n">
-        <v>282007.4914286038</v>
+        <v>327360.4507600018</v>
       </c>
       <c r="AE2" t="n">
-        <v>385855.0910650763</v>
+        <v>447909.010853649</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.795220318143615e-06</v>
+        <v>4.417812143187414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.03385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>349029.6227248462</v>
+        <v>405161.203502021</v>
       </c>
     </row>
     <row r="3">
@@ -7440,28 +7440,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.7093655661457</v>
+        <v>290.9769840429752</v>
       </c>
       <c r="AB3" t="n">
-        <v>336.1903938996081</v>
+        <v>398.1275465661458</v>
       </c>
       <c r="AC3" t="n">
-        <v>304.1048545521108</v>
+        <v>360.1308122973931</v>
       </c>
       <c r="AD3" t="n">
-        <v>245709.3655661457</v>
+        <v>290976.9840429752</v>
       </c>
       <c r="AE3" t="n">
-        <v>336190.3938996081</v>
+        <v>398127.5465661458</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.004425298706262e-06</v>
+        <v>4.74845810248652e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.12890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>304104.8545521108</v>
+        <v>360130.8122973931</v>
       </c>
     </row>
   </sheetData>
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>934.2517592929856</v>
+        <v>1027.297176269237</v>
       </c>
       <c r="AB2" t="n">
-        <v>1278.284473343384</v>
+        <v>1405.593317724381</v>
       </c>
       <c r="AC2" t="n">
-        <v>1156.286797291018</v>
+        <v>1271.445464243377</v>
       </c>
       <c r="AD2" t="n">
-        <v>934251.7592929857</v>
+        <v>1027297.176269237</v>
       </c>
       <c r="AE2" t="n">
-        <v>1278284.473343384</v>
+        <v>1405593.317724381</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.474060767948808e-06</v>
+        <v>2.149012982610474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.13932291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1156286.797291018</v>
+        <v>1271445.464243377</v>
       </c>
     </row>
     <row r="3">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>513.9205750479445</v>
+        <v>573.1546022690062</v>
       </c>
       <c r="AB3" t="n">
-        <v>703.1688033562194</v>
+        <v>784.2154126209251</v>
       </c>
       <c r="AC3" t="n">
-        <v>636.0593596675152</v>
+        <v>709.3709942936277</v>
       </c>
       <c r="AD3" t="n">
-        <v>513920.5750479444</v>
+        <v>573154.6022690062</v>
       </c>
       <c r="AE3" t="n">
-        <v>703168.8033562194</v>
+        <v>784215.4126209251</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.148778583096285e-06</v>
+        <v>3.132674834196268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.49869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>636059.3596675151</v>
+        <v>709370.9942936278</v>
       </c>
     </row>
     <row r="4">
@@ -7949,28 +7949,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>426.3056049016421</v>
+        <v>485.5395426141527</v>
       </c>
       <c r="AB4" t="n">
-        <v>583.290135902365</v>
+        <v>664.3366226975222</v>
       </c>
       <c r="AC4" t="n">
-        <v>527.6217439846898</v>
+        <v>600.933267829576</v>
       </c>
       <c r="AD4" t="n">
-        <v>426305.6049016421</v>
+        <v>485539.5426141527</v>
       </c>
       <c r="AE4" t="n">
-        <v>583290.135902365</v>
+        <v>664336.6226975222</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.400804687122857e-06</v>
+        <v>3.500100235703631e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.978515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>527621.7439846898</v>
+        <v>600933.267829576</v>
       </c>
     </row>
     <row r="5">
@@ -8055,28 +8055,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>393.3455509600213</v>
+        <v>444.1053955286427</v>
       </c>
       <c r="AB5" t="n">
-        <v>538.1927360044845</v>
+        <v>607.644594709568</v>
       </c>
       <c r="AC5" t="n">
-        <v>486.8283766384648</v>
+        <v>549.6518474250312</v>
       </c>
       <c r="AD5" t="n">
-        <v>393345.5509600213</v>
+        <v>444105.3955286427</v>
       </c>
       <c r="AE5" t="n">
-        <v>538192.7360044845</v>
+        <v>607644.594709568</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.53576739379869e-06</v>
+        <v>3.696860515280304e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.28841145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>486828.3766384647</v>
+        <v>549651.8474250311</v>
       </c>
     </row>
     <row r="6">
@@ -8161,28 +8161,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>366.8626150016155</v>
+        <v>426.0112118595545</v>
       </c>
       <c r="AB6" t="n">
-        <v>501.9576146815168</v>
+        <v>582.8873343544764</v>
       </c>
       <c r="AC6" t="n">
-        <v>454.0514844382489</v>
+        <v>527.2573852511962</v>
       </c>
       <c r="AD6" t="n">
-        <v>366862.6150016155</v>
+        <v>426011.2118595545</v>
       </c>
       <c r="AE6" t="n">
-        <v>501957.6146815168</v>
+        <v>582887.3343544764</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.605737421160415e-06</v>
+        <v>3.798868858805515e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.95638020833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>454051.4844382489</v>
+        <v>527257.3852511962</v>
       </c>
     </row>
     <row r="7">
@@ -8267,28 +8267,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>350.2336214360563</v>
+        <v>401.0787173506982</v>
       </c>
       <c r="AB7" t="n">
-        <v>479.2050920656988</v>
+        <v>548.7735954234317</v>
       </c>
       <c r="AC7" t="n">
-        <v>433.4704306475187</v>
+        <v>496.3994136847971</v>
       </c>
       <c r="AD7" t="n">
-        <v>350233.6214360563</v>
+        <v>401078.7173506983</v>
       </c>
       <c r="AE7" t="n">
-        <v>479205.0920656988</v>
+        <v>548773.5954234317</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.666901371207122e-06</v>
+        <v>3.888038942954093e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.68294270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>433470.4306475187</v>
+        <v>496399.4136847971</v>
       </c>
     </row>
     <row r="8">
@@ -8373,28 +8373,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>338.9811525912554</v>
+        <v>389.8262485058975</v>
       </c>
       <c r="AB8" t="n">
-        <v>463.8089677683527</v>
+        <v>533.3774711260855</v>
       </c>
       <c r="AC8" t="n">
-        <v>419.543690844515</v>
+        <v>482.4726738817935</v>
       </c>
       <c r="AD8" t="n">
-        <v>338981.1525912554</v>
+        <v>389826.2485058975</v>
       </c>
       <c r="AE8" t="n">
-        <v>463808.9677683527</v>
+        <v>533377.4711260855</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.695233967785879e-06</v>
+        <v>3.929344647035437e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.55924479166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>419543.690844515</v>
+        <v>482472.6738817935</v>
       </c>
     </row>
     <row r="9">
@@ -8479,28 +8479,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>326.5568762991467</v>
+        <v>377.2313800131965</v>
       </c>
       <c r="AB9" t="n">
-        <v>446.809524825104</v>
+        <v>516.1446164079898</v>
       </c>
       <c r="AC9" t="n">
-        <v>404.1666508769019</v>
+        <v>466.8844986315294</v>
       </c>
       <c r="AD9" t="n">
-        <v>326556.8762991467</v>
+        <v>377231.3800131965</v>
       </c>
       <c r="AE9" t="n">
-        <v>446809.524825104</v>
+        <v>516144.6164079898</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.733808415154929e-06</v>
+        <v>3.985581804956997e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.396484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>404166.6508769019</v>
+        <v>466884.4986315294</v>
       </c>
     </row>
     <row r="10">
@@ -8585,28 +8585,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>327.551291676215</v>
+        <v>378.2257953902648</v>
       </c>
       <c r="AB10" t="n">
-        <v>448.170127814519</v>
+        <v>517.505219397405</v>
       </c>
       <c r="AC10" t="n">
-        <v>405.3973998266256</v>
+        <v>468.115247581253</v>
       </c>
       <c r="AD10" t="n">
-        <v>327551.291676215</v>
+        <v>378225.7953902648</v>
       </c>
       <c r="AE10" t="n">
-        <v>448170.127814519</v>
+        <v>517505.2193974049</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.731224022899434e-06</v>
+        <v>3.98181405492255e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.40950520833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>405397.3998266256</v>
+        <v>468115.2475812529</v>
       </c>
     </row>
   </sheetData>
@@ -8882,28 +8882,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.2339535028588</v>
+        <v>282.9314662436961</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.9622053227192</v>
+        <v>387.1193141699775</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.8528299376442</v>
+        <v>350.1731901509639</v>
       </c>
       <c r="AD2" t="n">
-        <v>238233.9535028588</v>
+        <v>282931.4662436961</v>
       </c>
       <c r="AE2" t="n">
-        <v>325962.2053227192</v>
+        <v>387119.3141699776</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.97455626656158e-06</v>
+        <v>4.765937855391662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.53580729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>294852.8299376442</v>
+        <v>350173.190150964</v>
       </c>
     </row>
     <row r="3">
@@ -8988,28 +8988,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.1698653776083</v>
+        <v>281.6967859178534</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.5062730054973</v>
+        <v>385.429970077908</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.5358497573637</v>
+        <v>348.6450746880321</v>
       </c>
       <c r="AD3" t="n">
-        <v>237169.8653776083</v>
+        <v>281696.7859178535</v>
       </c>
       <c r="AE3" t="n">
-        <v>324506.2730054973</v>
+        <v>385429.970077908</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.995862827411137e-06</v>
+        <v>4.800075970734323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>293535.8497573637</v>
+        <v>348645.0746880322</v>
       </c>
     </row>
   </sheetData>
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>653.6941763887436</v>
+        <v>735.8556228993295</v>
       </c>
       <c r="AB2" t="n">
-        <v>894.4132110867911</v>
+        <v>1006.830126909775</v>
       </c>
       <c r="AC2" t="n">
-        <v>809.0516695374928</v>
+        <v>910.7396726924638</v>
       </c>
       <c r="AD2" t="n">
-        <v>653694.1763887436</v>
+        <v>735855.6228993295</v>
       </c>
       <c r="AE2" t="n">
-        <v>894413.2110867911</v>
+        <v>1006830.126909775</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.801191823905519e-06</v>
+        <v>2.674487426451336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.98502604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>809051.6695374928</v>
+        <v>910739.6726924638</v>
       </c>
     </row>
     <row r="3">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>414.1435783230261</v>
+        <v>471.6054758762442</v>
       </c>
       <c r="AB3" t="n">
-        <v>566.6495145867577</v>
+        <v>645.2714178590767</v>
       </c>
       <c r="AC3" t="n">
-        <v>512.5692802121855</v>
+        <v>583.6876193827286</v>
       </c>
       <c r="AD3" t="n">
-        <v>414143.5783230261</v>
+        <v>471605.4758762442</v>
       </c>
       <c r="AE3" t="n">
-        <v>566649.5145867578</v>
+        <v>645271.4178590766</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.406531595442385e-06</v>
+        <v>3.57332206816976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.46028645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>512569.2802121855</v>
+        <v>583687.6193827286</v>
       </c>
     </row>
     <row r="4">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>353.0753077203933</v>
+        <v>402.3893333062101</v>
       </c>
       <c r="AB4" t="n">
-        <v>483.0932126062795</v>
+        <v>550.5668379940581</v>
       </c>
       <c r="AC4" t="n">
-        <v>436.9874744207177</v>
+        <v>498.0215117013148</v>
       </c>
       <c r="AD4" t="n">
-        <v>353075.3077203932</v>
+        <v>402389.3333062101</v>
       </c>
       <c r="AE4" t="n">
-        <v>483093.2126062795</v>
+        <v>550566.8379940582</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.6444680402467e-06</v>
+        <v>3.926620379586619e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.24934895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>436987.4744207177</v>
+        <v>498021.5117013148</v>
       </c>
     </row>
     <row r="5">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>323.102811372729</v>
+        <v>372.5020883045664</v>
       </c>
       <c r="AB5" t="n">
-        <v>442.0835208101893</v>
+        <v>509.6737908506171</v>
       </c>
       <c r="AC5" t="n">
-        <v>399.8916900521825</v>
+        <v>461.0312395834916</v>
       </c>
       <c r="AD5" t="n">
-        <v>323102.811372729</v>
+        <v>372502.0883045665</v>
       </c>
       <c r="AE5" t="n">
-        <v>442083.5208101892</v>
+        <v>509673.7908506171</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.738607679219883e-06</v>
+        <v>4.066402982096175e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.82942708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>399891.6900521825</v>
+        <v>461031.2395834916</v>
       </c>
     </row>
     <row r="6">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>302.4101841185202</v>
+        <v>351.6388688497655</v>
       </c>
       <c r="AB6" t="n">
-        <v>413.7709553066953</v>
+        <v>481.1278135722763</v>
       </c>
       <c r="AC6" t="n">
-        <v>374.2812360634067</v>
+        <v>435.2096503120648</v>
       </c>
       <c r="AD6" t="n">
-        <v>302410.1841185202</v>
+        <v>351638.8688497655</v>
       </c>
       <c r="AE6" t="n">
-        <v>413770.9553066953</v>
+        <v>481127.8135722763</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.819313014534102e-06</v>
+        <v>4.186237750209547e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.49088541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>374281.2360634067</v>
+        <v>435209.6503120648</v>
       </c>
     </row>
     <row r="7">
@@ -9815,28 +9815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>299.0700433227491</v>
+        <v>348.2987280539944</v>
       </c>
       <c r="AB7" t="n">
-        <v>409.2008273133093</v>
+        <v>476.5576855788901</v>
       </c>
       <c r="AC7" t="n">
-        <v>370.1472746714945</v>
+        <v>431.0756889201526</v>
       </c>
       <c r="AD7" t="n">
-        <v>299070.0433227491</v>
+        <v>348298.7280539944</v>
       </c>
       <c r="AE7" t="n">
-        <v>409200.8273133093</v>
+        <v>476557.6855788901</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.831951211309572e-06</v>
+        <v>4.205003490715587e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.43880208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>370147.2746714945</v>
+        <v>431075.6889201526</v>
       </c>
     </row>
   </sheetData>
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>784.4729785681941</v>
+        <v>867.8874475840689</v>
       </c>
       <c r="AB2" t="n">
-        <v>1073.350537782272</v>
+        <v>1187.481894276445</v>
       </c>
       <c r="AC2" t="n">
-        <v>970.911468913273</v>
+        <v>1074.150288928006</v>
       </c>
       <c r="AD2" t="n">
-        <v>784472.9785681941</v>
+        <v>867887.4475840689</v>
       </c>
       <c r="AE2" t="n">
-        <v>1073350.537782272</v>
+        <v>1187481.894276445</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.628792079464698e-06</v>
+        <v>2.39504506333501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.48567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>970911.468913273</v>
+        <v>1074150.288928006</v>
       </c>
     </row>
     <row r="3">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>457.5919332366387</v>
+        <v>524.289300500669</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.0974705857</v>
+        <v>717.3557509565202</v>
       </c>
       <c r="AC3" t="n">
-        <v>566.3436067263191</v>
+        <v>648.892324900349</v>
       </c>
       <c r="AD3" t="n">
-        <v>457591.9332366387</v>
+        <v>524289.3005006691</v>
       </c>
       <c r="AE3" t="n">
-        <v>626097.4705857</v>
+        <v>717355.7509565202</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.275921264224183e-06</v>
+        <v>3.346611306097924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.9453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>566343.6067263191</v>
+        <v>648892.324900349</v>
       </c>
     </row>
     <row r="4">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>389.7368459514173</v>
+        <v>448.1610479483724</v>
       </c>
       <c r="AB4" t="n">
-        <v>533.2551466068835</v>
+        <v>613.1937172729994</v>
       </c>
       <c r="AC4" t="n">
-        <v>482.3620238430206</v>
+        <v>554.6713695192509</v>
       </c>
       <c r="AD4" t="n">
-        <v>389736.8459514172</v>
+        <v>448161.0479483724</v>
       </c>
       <c r="AE4" t="n">
-        <v>533255.1466068835</v>
+        <v>613193.7172729993</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.517339353943105e-06</v>
+        <v>3.701602720453954e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.607421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>482362.0238430206</v>
+        <v>554671.3695192509</v>
       </c>
     </row>
     <row r="5">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>366.9404530690136</v>
+        <v>417.0062384528733</v>
       </c>
       <c r="AB5" t="n">
-        <v>502.064116159304</v>
+        <v>570.5663324680663</v>
       </c>
       <c r="AC5" t="n">
-        <v>454.1478215644719</v>
+        <v>516.1122824921904</v>
       </c>
       <c r="AD5" t="n">
-        <v>366940.4530690136</v>
+        <v>417006.2384528733</v>
       </c>
       <c r="AE5" t="n">
-        <v>502064.116159304</v>
+        <v>570566.3324680664</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.613380072187506e-06</v>
+        <v>3.842825072287836e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.14518229166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>454147.8215644719</v>
+        <v>516112.2824921904</v>
       </c>
     </row>
     <row r="6">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>336.2369169976305</v>
+        <v>386.3879537275108</v>
       </c>
       <c r="AB6" t="n">
-        <v>460.0541835620252</v>
+        <v>528.6730445234368</v>
       </c>
       <c r="AC6" t="n">
-        <v>416.1472579729667</v>
+        <v>478.2172311513975</v>
       </c>
       <c r="AD6" t="n">
-        <v>336236.9169976305</v>
+        <v>386387.9537275108</v>
       </c>
       <c r="AE6" t="n">
-        <v>460054.1835620252</v>
+        <v>528673.0445234368</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.703375587862209e-06</v>
+        <v>3.975158301468213e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.74153645833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>416147.2579729667</v>
+        <v>478217.2311513975</v>
       </c>
     </row>
     <row r="7">
@@ -10642,28 +10642,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>317.2224039487573</v>
+        <v>367.2028484780453</v>
       </c>
       <c r="AB7" t="n">
-        <v>434.037687947445</v>
+        <v>502.4231371340097</v>
       </c>
       <c r="AC7" t="n">
-        <v>392.613740185461</v>
+        <v>454.4725780812407</v>
       </c>
       <c r="AD7" t="n">
-        <v>317222.4039487573</v>
+        <v>367202.8484780453</v>
       </c>
       <c r="AE7" t="n">
-        <v>434037.687947445</v>
+        <v>502423.1371340097</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.774357966422539e-06</v>
+        <v>4.079533806173864e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.43880208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>392613.7401854611</v>
+        <v>454472.5780812407</v>
       </c>
     </row>
     <row r="8">
@@ -10748,28 +10748,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>313.3235366081709</v>
+        <v>363.3039811374588</v>
       </c>
       <c r="AB8" t="n">
-        <v>428.7030856461672</v>
+        <v>497.0885348327318</v>
       </c>
       <c r="AC8" t="n">
-        <v>387.7882648406559</v>
+        <v>449.6471027364355</v>
       </c>
       <c r="AD8" t="n">
-        <v>313323.5366081708</v>
+        <v>363303.9811374588</v>
       </c>
       <c r="AE8" t="n">
-        <v>428703.0856461672</v>
+        <v>497088.5348327318</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.777185561172881e-06</v>
+        <v>4.083691621608566e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.42903645833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>387788.2648406558</v>
+        <v>449647.1027364355</v>
       </c>
     </row>
     <row r="9">
@@ -10854,28 +10854,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>313.0540690988934</v>
+        <v>363.0345136281813</v>
       </c>
       <c r="AB9" t="n">
-        <v>428.3343883119061</v>
+        <v>496.7198374984709</v>
       </c>
       <c r="AC9" t="n">
-        <v>387.4547554625068</v>
+        <v>449.3135933582864</v>
       </c>
       <c r="AD9" t="n">
-        <v>313054.0690988934</v>
+        <v>363034.5136281813</v>
       </c>
       <c r="AE9" t="n">
-        <v>428334.3883119061</v>
+        <v>496719.8374984709</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.78508332582039e-06</v>
+        <v>4.09530483023653e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.396484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>387454.7554625068</v>
+        <v>449313.5933582864</v>
       </c>
     </row>
   </sheetData>
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1114.018245393078</v>
+        <v>1208.42028219325</v>
       </c>
       <c r="AB2" t="n">
-        <v>1524.248910363174</v>
+        <v>1653.413941837102</v>
       </c>
       <c r="AC2" t="n">
-        <v>1378.776733654894</v>
+        <v>1495.61443580921</v>
       </c>
       <c r="AD2" t="n">
-        <v>1114018.245393078</v>
+        <v>1208420.28219325</v>
       </c>
       <c r="AE2" t="n">
-        <v>1524248.910363174</v>
+        <v>1653413.941837102</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.329337720980844e-06</v>
+        <v>1.923249266788383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1378776.733654894</v>
+        <v>1495614.43580921</v>
       </c>
     </row>
     <row r="3">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>573.0013282793991</v>
+        <v>633.0753842462543</v>
       </c>
       <c r="AB3" t="n">
-        <v>784.0056963863738</v>
+        <v>866.2016700405269</v>
       </c>
       <c r="AC3" t="n">
-        <v>709.1812930821632</v>
+        <v>783.5325983735377</v>
       </c>
       <c r="AD3" t="n">
-        <v>573001.3282793991</v>
+        <v>633075.3842462543</v>
       </c>
       <c r="AE3" t="n">
-        <v>784005.6963863737</v>
+        <v>866201.6700405269</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.031510374873805e-06</v>
+        <v>2.939133357373028e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.08138020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>709181.2930821632</v>
+        <v>783532.5983735377</v>
       </c>
     </row>
     <row r="4">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>470.76653661697</v>
+        <v>530.6699108746822</v>
       </c>
       <c r="AB4" t="n">
-        <v>644.12354415315</v>
+        <v>726.0859835629077</v>
       </c>
       <c r="AC4" t="n">
-        <v>582.6492971322446</v>
+        <v>656.7893563597414</v>
       </c>
       <c r="AD4" t="n">
-        <v>470766.53661697</v>
+        <v>530669.9108746821</v>
       </c>
       <c r="AE4" t="n">
-        <v>644123.5441531499</v>
+        <v>726085.9835629077</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.297942593500125e-06</v>
+        <v>3.324600166171465e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>582649.2971322446</v>
+        <v>656789.3563597414</v>
       </c>
     </row>
     <row r="5">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>422.0141070896456</v>
+        <v>473.5914191941923</v>
       </c>
       <c r="AB5" t="n">
-        <v>577.41831926847</v>
+        <v>647.9886731203289</v>
       </c>
       <c r="AC5" t="n">
-        <v>522.3103252891875</v>
+        <v>586.1455436155387</v>
       </c>
       <c r="AD5" t="n">
-        <v>422014.1070896456</v>
+        <v>473591.4191941923</v>
       </c>
       <c r="AE5" t="n">
-        <v>577418.3192684699</v>
+        <v>647988.6731203289</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.449463565590685e-06</v>
+        <v>3.543816542775309e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.50651041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>522310.3252891875</v>
+        <v>586145.5436155387</v>
       </c>
     </row>
     <row r="6">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>405.2048956993696</v>
+        <v>456.6116156033241</v>
       </c>
       <c r="AB6" t="n">
-        <v>554.4192146742253</v>
+        <v>624.7561567512372</v>
       </c>
       <c r="AC6" t="n">
-        <v>501.5062229579713</v>
+        <v>565.1303060016716</v>
       </c>
       <c r="AD6" t="n">
-        <v>405204.8956993695</v>
+        <v>456611.6156033241</v>
       </c>
       <c r="AE6" t="n">
-        <v>554419.2146742253</v>
+        <v>624756.1567512372</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.515812811133445e-06</v>
+        <v>3.639808807064569e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.177734375</v>
       </c>
       <c r="AH6" t="n">
-        <v>501506.2229579713</v>
+        <v>565130.3060016716</v>
       </c>
     </row>
     <row r="7">
@@ -11681,28 +11681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>379.406971937694</v>
+        <v>439.310256686855</v>
       </c>
       <c r="AB7" t="n">
-        <v>519.121357259429</v>
+        <v>601.0836741996386</v>
       </c>
       <c r="AC7" t="n">
-        <v>469.5771435139893</v>
+        <v>543.7170919602595</v>
       </c>
       <c r="AD7" t="n">
-        <v>379406.971937694</v>
+        <v>439310.256686855</v>
       </c>
       <c r="AE7" t="n">
-        <v>519121.3572594291</v>
+        <v>601083.6741996387</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.577079986804846e-06</v>
+        <v>3.728448472386993e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.88802083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>469577.1435139893</v>
+        <v>543717.0919602595</v>
       </c>
     </row>
     <row r="8">
@@ -11787,28 +11787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>365.0561101799764</v>
+        <v>416.5480814299515</v>
       </c>
       <c r="AB8" t="n">
-        <v>499.4858750871823</v>
+        <v>569.9394618168436</v>
       </c>
       <c r="AC8" t="n">
-        <v>451.8156442016895</v>
+        <v>515.545239496102</v>
       </c>
       <c r="AD8" t="n">
-        <v>365056.1101799764</v>
+        <v>416548.0814299515</v>
       </c>
       <c r="AE8" t="n">
-        <v>499485.8750871823</v>
+        <v>569939.4618168436</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.627430123493324e-06</v>
+        <v>3.80129366585473e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.66015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>451815.6442016895</v>
+        <v>515545.239496102</v>
       </c>
     </row>
     <row r="9">
@@ -11893,28 +11893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>354.0345229233571</v>
+        <v>405.5264941733323</v>
       </c>
       <c r="AB9" t="n">
-        <v>484.4056531645629</v>
+        <v>554.8592398942242</v>
       </c>
       <c r="AC9" t="n">
-        <v>438.1746574941405</v>
+        <v>501.9042527885529</v>
       </c>
       <c r="AD9" t="n">
-        <v>354034.5229233571</v>
+        <v>405526.4941733322</v>
       </c>
       <c r="AE9" t="n">
-        <v>484405.6531645629</v>
+        <v>554859.2398942242</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.655381507785806e-06</v>
+        <v>3.841732960172333e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.53645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>438174.6574941405</v>
+        <v>501904.2527885529</v>
       </c>
     </row>
     <row r="10">
@@ -11999,28 +11999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>343.7903101906606</v>
+        <v>395.1116892400434</v>
       </c>
       <c r="AB10" t="n">
-        <v>470.3890693609183</v>
+        <v>540.6092443157326</v>
       </c>
       <c r="AC10" t="n">
-        <v>425.4957967763168</v>
+        <v>489.0142567880782</v>
       </c>
       <c r="AD10" t="n">
-        <v>343790.3101906606</v>
+        <v>395111.6892400434</v>
       </c>
       <c r="AE10" t="n">
-        <v>470389.0693609182</v>
+        <v>540609.2443157325</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.680509519927532e-06</v>
+        <v>3.878087477286139e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.42903645833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>425495.7967763168</v>
+        <v>489014.2567880782</v>
       </c>
     </row>
     <row r="11">
@@ -12105,28 +12105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>340.0639159402022</v>
+        <v>391.3852949895851</v>
       </c>
       <c r="AB11" t="n">
-        <v>465.2904523505293</v>
+        <v>535.5106273053435</v>
       </c>
       <c r="AC11" t="n">
-        <v>420.8837846174454</v>
+        <v>484.4022446292068</v>
       </c>
       <c r="AD11" t="n">
-        <v>340063.9159402022</v>
+        <v>391385.2949895851</v>
       </c>
       <c r="AE11" t="n">
-        <v>465290.4523505293</v>
+        <v>535510.6273053435</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.691614783720505e-06</v>
+        <v>3.894154267621079e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.38346354166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>420883.7846174454</v>
+        <v>484402.2446292068</v>
       </c>
     </row>
     <row r="12">
@@ -12211,28 +12211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>341.3328947731688</v>
+        <v>392.6542738225516</v>
       </c>
       <c r="AB12" t="n">
-        <v>467.0267251731892</v>
+        <v>537.2469001280034</v>
       </c>
       <c r="AC12" t="n">
-        <v>422.4543499987848</v>
+        <v>485.9728100105462</v>
       </c>
       <c r="AD12" t="n">
-        <v>341332.8947731688</v>
+        <v>392654.2738225516</v>
       </c>
       <c r="AE12" t="n">
-        <v>467026.7251731892</v>
+        <v>537246.9001280034</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.690203097645127e-06</v>
+        <v>3.892111879019179e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.38671875</v>
       </c>
       <c r="AH12" t="n">
-        <v>422454.3499987848</v>
+        <v>485972.8100105462</v>
       </c>
     </row>
   </sheetData>
@@ -12508,28 +12508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>546.7771698221119</v>
+        <v>619.5541120663307</v>
       </c>
       <c r="AB2" t="n">
-        <v>748.1246458568941</v>
+        <v>847.7012689275268</v>
       </c>
       <c r="AC2" t="n">
-        <v>676.7246796558464</v>
+        <v>766.7978495772861</v>
       </c>
       <c r="AD2" t="n">
-        <v>546777.1698221118</v>
+        <v>619554.1120663307</v>
       </c>
       <c r="AE2" t="n">
-        <v>748124.6458568941</v>
+        <v>847701.2689275268</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.994763910457608e-06</v>
+        <v>2.995506272966105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>676724.6796558464</v>
+        <v>766797.8495772862</v>
       </c>
     </row>
     <row r="3">
@@ -12614,28 +12614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>359.7922551629088</v>
+        <v>416.3775789407296</v>
       </c>
       <c r="AB3" t="n">
-        <v>492.2836364279365</v>
+        <v>569.7061727890512</v>
       </c>
       <c r="AC3" t="n">
-        <v>445.3007770916766</v>
+        <v>515.3342152456988</v>
       </c>
       <c r="AD3" t="n">
-        <v>359792.2551629088</v>
+        <v>416377.5789407296</v>
       </c>
       <c r="AE3" t="n">
-        <v>492283.6364279365</v>
+        <v>569706.1727890512</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.565540068176338e-06</v>
+        <v>3.852632047070228e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.919921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>445300.7770916766</v>
+        <v>515334.2152456988</v>
       </c>
     </row>
     <row r="4">
@@ -12720,28 +12720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>321.2080532925485</v>
+        <v>369.6976573457215</v>
       </c>
       <c r="AB4" t="n">
-        <v>439.4910292140593</v>
+        <v>505.8366446899635</v>
       </c>
       <c r="AC4" t="n">
-        <v>397.5466222154023</v>
+        <v>457.5603052669424</v>
       </c>
       <c r="AD4" t="n">
-        <v>321208.0532925485</v>
+        <v>369697.6573457215</v>
       </c>
       <c r="AE4" t="n">
-        <v>439491.0292140594</v>
+        <v>505836.6446899635</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757359954216667e-06</v>
+        <v>4.140685018602902e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.021484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>397546.6222154023</v>
+        <v>457560.3052669424</v>
       </c>
     </row>
     <row r="5">
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>288.5733596523588</v>
+        <v>337.1482150515524</v>
       </c>
       <c r="AB5" t="n">
-        <v>394.8388016344803</v>
+        <v>461.3010617630338</v>
       </c>
       <c r="AC5" t="n">
-        <v>357.1559405662233</v>
+        <v>417.2751358684757</v>
       </c>
       <c r="AD5" t="n">
-        <v>288573.3596523587</v>
+        <v>337148.2150515524</v>
       </c>
       <c r="AE5" t="n">
-        <v>394838.8016344803</v>
+        <v>461301.0617630339</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.863960495981118e-06</v>
+        <v>4.300765412018353e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.572265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>357155.9405662233</v>
+        <v>417275.1358684757</v>
       </c>
     </row>
     <row r="6">
@@ -12932,28 +12932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>285.7997650674904</v>
+        <v>334.3746204666841</v>
       </c>
       <c r="AB6" t="n">
-        <v>391.0438471611062</v>
+        <v>457.5061072896598</v>
       </c>
       <c r="AC6" t="n">
-        <v>353.7231712215359</v>
+        <v>413.8423665237883</v>
       </c>
       <c r="AD6" t="n">
-        <v>285799.7650674904</v>
+        <v>334374.620466684</v>
       </c>
       <c r="AE6" t="n">
-        <v>391043.8471611062</v>
+        <v>457506.1072896598</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.876381953569716e-06</v>
+        <v>4.319418523763037e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.5234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>353723.1712215359</v>
+        <v>413842.3665237883</v>
       </c>
     </row>
   </sheetData>
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>402.9793318836882</v>
+        <v>465.75952696576</v>
       </c>
       <c r="AB2" t="n">
-        <v>551.3741000766639</v>
+        <v>637.2727326546883</v>
       </c>
       <c r="AC2" t="n">
-        <v>498.7517298237561</v>
+        <v>576.4523174680219</v>
       </c>
       <c r="AD2" t="n">
-        <v>402979.3318836882</v>
+        <v>465759.52696576</v>
       </c>
       <c r="AE2" t="n">
-        <v>551374.1000766639</v>
+        <v>637272.7326546883</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.341648293437914e-06</v>
+        <v>3.591495457084845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.74283854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>498751.7298237561</v>
+        <v>576452.3174680219</v>
       </c>
     </row>
     <row r="3">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.1828816118506</v>
+        <v>339.2467822183125</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.7775088203271</v>
+        <v>464.1724139428443</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.6233044697719</v>
+        <v>419.8724502262131</v>
       </c>
       <c r="AD3" t="n">
-        <v>292182.8816118506</v>
+        <v>339246.7822183126</v>
       </c>
       <c r="AE3" t="n">
-        <v>399777.5088203271</v>
+        <v>464172.4139428443</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.838210515906156e-06</v>
+        <v>4.353096151412995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.16471354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>361623.3044697719</v>
+        <v>419872.4502262131</v>
       </c>
     </row>
     <row r="4">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>262.6963203052963</v>
+        <v>309.845472257779</v>
       </c>
       <c r="AB4" t="n">
-        <v>359.4326947854245</v>
+        <v>423.9442445605911</v>
       </c>
       <c r="AC4" t="n">
-        <v>325.1289428620583</v>
+        <v>383.4836008692118</v>
       </c>
       <c r="AD4" t="n">
-        <v>262696.3203052963</v>
+        <v>309845.472257779</v>
       </c>
       <c r="AE4" t="n">
-        <v>359432.6947854245</v>
+        <v>423944.2445605911</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.954980060318274e-06</v>
+        <v>4.532191060523481e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.68294270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>325128.9428620583</v>
+        <v>383483.6008692118</v>
       </c>
     </row>
     <row r="5">
@@ -13547,28 +13547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>263.9586581733913</v>
+        <v>311.1078101258739</v>
       </c>
       <c r="AB5" t="n">
-        <v>361.1598811469684</v>
+        <v>425.6714309221349</v>
       </c>
       <c r="AC5" t="n">
-        <v>326.6912889813776</v>
+        <v>385.0459469885311</v>
       </c>
       <c r="AD5" t="n">
-        <v>263958.6581733912</v>
+        <v>311107.8101258739</v>
       </c>
       <c r="AE5" t="n">
-        <v>361159.8811469683</v>
+        <v>425671.4309221349</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.955298233463811e-06</v>
+        <v>4.53267905755103e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.68294270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>326691.2889813776</v>
+        <v>385045.9469885311</v>
       </c>
     </row>
   </sheetData>
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.4767790746229</v>
+        <v>374.1545997052627</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.490467567552</v>
+        <v>511.9348298527077</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.6415527681406</v>
+        <v>463.0764881966108</v>
       </c>
       <c r="AD2" t="n">
-        <v>320476.7790746229</v>
+        <v>374154.5997052627</v>
       </c>
       <c r="AE2" t="n">
-        <v>438490.467567552</v>
+        <v>511934.8298527077</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.619369782634662e-06</v>
+        <v>4.092713617340185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.63606770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>396641.5527681406</v>
+        <v>463076.4881966108</v>
       </c>
     </row>
     <row r="3">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.6921001061972</v>
+        <v>300.1992390276969</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.5350146524938</v>
+        <v>410.7458426934174</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.3211465875287</v>
+        <v>371.5448359521678</v>
       </c>
       <c r="AD3" t="n">
-        <v>246692.1001061972</v>
+        <v>300199.2390276969</v>
       </c>
       <c r="AE3" t="n">
-        <v>337535.0146524938</v>
+        <v>410745.8426934174</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.990854016519519e-06</v>
+        <v>4.673150405122964e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.94010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>305321.1465875287</v>
+        <v>371544.8359521677</v>
       </c>
     </row>
     <row r="4">
@@ -24749,28 +24749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.9482764031946</v>
+        <v>301.4554153246943</v>
       </c>
       <c r="AB4" t="n">
-        <v>339.2537704806317</v>
+        <v>412.4645985215563</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.8758667717187</v>
+        <v>373.099556136358</v>
       </c>
       <c r="AD4" t="n">
-        <v>247948.2764031946</v>
+        <v>301455.4153246944</v>
       </c>
       <c r="AE4" t="n">
-        <v>339253.7704806317</v>
+        <v>412464.5985215563</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.992170558399796e-06</v>
+        <v>4.675207475841627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.93684895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>306875.8667717187</v>
+        <v>373099.556136358</v>
       </c>
     </row>
   </sheetData>
@@ -25046,28 +25046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.1125122528089</v>
+        <v>276.863138716351</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.9548234623628</v>
+        <v>378.8163607313479</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.5142227671157</v>
+        <v>342.6626589352488</v>
       </c>
       <c r="AD2" t="n">
-        <v>233112.5122528089</v>
+        <v>276863.1387163511</v>
       </c>
       <c r="AE2" t="n">
-        <v>318954.8234623628</v>
+        <v>378816.3607313479</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.945622669812542e-06</v>
+        <v>4.800410962098914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.01432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>288514.2227671157</v>
+        <v>342662.6589352489</v>
       </c>
     </row>
   </sheetData>
@@ -25343,28 +25343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>716.0992954727138</v>
+        <v>798.9859110103542</v>
       </c>
       <c r="AB2" t="n">
-        <v>979.7986481370276</v>
+        <v>1093.207772215027</v>
       </c>
       <c r="AC2" t="n">
-        <v>886.2880403148686</v>
+        <v>988.8735567615695</v>
       </c>
       <c r="AD2" t="n">
-        <v>716099.2954727139</v>
+        <v>798985.9110103543</v>
       </c>
       <c r="AE2" t="n">
-        <v>979798.6481370276</v>
+        <v>1093207.772215028</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.71388727414779e-06</v>
+        <v>2.532064160362948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.70442708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>886288.0403148686</v>
+        <v>988873.5567615695</v>
       </c>
     </row>
     <row r="3">
@@ -25449,28 +25449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.514901851333</v>
+        <v>493.5952713258814</v>
       </c>
       <c r="AB3" t="n">
-        <v>595.8907022744394</v>
+        <v>675.3588261145777</v>
       </c>
       <c r="AC3" t="n">
-        <v>539.0197299872194</v>
+        <v>610.9035276222672</v>
       </c>
       <c r="AD3" t="n">
-        <v>435514.901851333</v>
+        <v>493595.2713258814</v>
       </c>
       <c r="AE3" t="n">
-        <v>595890.7022744394</v>
+        <v>675358.8261145777</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.340789502786311e-06</v>
+        <v>3.458237479420091e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.69466145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>539019.7299872194</v>
+        <v>610903.5276222673</v>
       </c>
     </row>
     <row r="4">
@@ -25555,28 +25555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>372.5298147520304</v>
+        <v>422.2277372413371</v>
       </c>
       <c r="AB4" t="n">
-        <v>509.7117273992419</v>
+        <v>577.7106174667114</v>
       </c>
       <c r="AC4" t="n">
-        <v>461.06555552116</v>
+        <v>522.5747269576317</v>
       </c>
       <c r="AD4" t="n">
-        <v>372529.8147520304</v>
+        <v>422227.7372413371</v>
       </c>
       <c r="AE4" t="n">
-        <v>509711.7273992419</v>
+        <v>577710.6174667113</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.573489780240416e-06</v>
+        <v>3.802024402595088e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.45768229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>461065.55552116</v>
+        <v>522574.7269576316</v>
       </c>
     </row>
     <row r="5">
@@ -25661,28 +25661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>340.1901916919556</v>
+        <v>398.0998794573608</v>
       </c>
       <c r="AB5" t="n">
-        <v>465.4632284049714</v>
+        <v>544.6978180007145</v>
       </c>
       <c r="AC5" t="n">
-        <v>421.0400711677443</v>
+        <v>492.7126227389145</v>
       </c>
       <c r="AD5" t="n">
-        <v>340190.1916919557</v>
+        <v>398099.8794573608</v>
       </c>
       <c r="AE5" t="n">
-        <v>465463.2284049714</v>
+        <v>544697.8180007145</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.677776531752855e-06</v>
+        <v>3.956095647471228e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.97265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>421040.0711677443</v>
+        <v>492712.6227389145</v>
       </c>
     </row>
     <row r="6">
@@ -25767,28 +25767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>319.1945321152722</v>
+        <v>368.9777059505995</v>
       </c>
       <c r="AB6" t="n">
-        <v>436.7360407090251</v>
+        <v>504.8515754291437</v>
       </c>
       <c r="AC6" t="n">
-        <v>395.0545659466379</v>
+        <v>456.6692496338218</v>
       </c>
       <c r="AD6" t="n">
-        <v>319194.5321152722</v>
+        <v>368977.7059505995</v>
       </c>
       <c r="AE6" t="n">
-        <v>436736.0407090251</v>
+        <v>504851.5754291437</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.759807564812216e-06</v>
+        <v>4.077286721108458e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.61458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>395054.5659466379</v>
+        <v>456669.2496338218</v>
       </c>
     </row>
     <row r="7">
@@ -25873,28 +25873,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>303.1030578125194</v>
+        <v>352.7156394472544</v>
       </c>
       <c r="AB7" t="n">
-        <v>414.7189756622549</v>
+        <v>482.6010986075266</v>
       </c>
       <c r="AC7" t="n">
-        <v>375.1387786867867</v>
+        <v>436.5423270913194</v>
       </c>
       <c r="AD7" t="n">
-        <v>303103.0578125194</v>
+        <v>352715.6394472544</v>
       </c>
       <c r="AE7" t="n">
-        <v>414718.975662255</v>
+        <v>482601.0986075266</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.826771673432102e-06</v>
+        <v>4.17621820979191e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.34114583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>375138.7786867867</v>
+        <v>436542.3270913194</v>
       </c>
     </row>
     <row r="8">
@@ -25979,28 +25979,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>306.6211032546599</v>
+        <v>356.2336848893949</v>
       </c>
       <c r="AB8" t="n">
-        <v>419.5325206414026</v>
+        <v>487.4146435866743</v>
       </c>
       <c r="AC8" t="n">
-        <v>379.4929256889773</v>
+        <v>440.8964740935101</v>
       </c>
       <c r="AD8" t="n">
-        <v>306621.1032546599</v>
+        <v>356233.6848893949</v>
       </c>
       <c r="AE8" t="n">
-        <v>419532.5206414026</v>
+        <v>487414.6435866743</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.803432712045466e-06</v>
+        <v>4.14173767623606e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.435546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>379492.9256889773</v>
+        <v>440896.4740935101</v>
       </c>
     </row>
   </sheetData>
@@ -26276,28 +26276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1019.257681353967</v>
+        <v>1112.99124125572</v>
       </c>
       <c r="AB2" t="n">
-        <v>1394.593326103825</v>
+        <v>1522.843717994216</v>
       </c>
       <c r="AC2" t="n">
-        <v>1261.495296384502</v>
+        <v>1377.505650873429</v>
       </c>
       <c r="AD2" t="n">
-        <v>1019257.681353967</v>
+        <v>1112991.24125572</v>
       </c>
       <c r="AE2" t="n">
-        <v>1394593.326103825</v>
+        <v>1522843.717994216</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.401032949409577e-06</v>
+        <v>2.03453663900764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.04752604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1261495.296384502</v>
+        <v>1377505.650873429</v>
       </c>
     </row>
     <row r="3">
@@ -26382,28 +26382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>537.7699813900319</v>
+        <v>605.9165032611133</v>
       </c>
       <c r="AB3" t="n">
-        <v>735.8006132750136</v>
+        <v>829.0416909113901</v>
       </c>
       <c r="AC3" t="n">
-        <v>665.5768354466921</v>
+        <v>749.9191154981276</v>
       </c>
       <c r="AD3" t="n">
-        <v>537769.981390032</v>
+        <v>605916.5032611133</v>
       </c>
       <c r="AE3" t="n">
-        <v>735800.6132750136</v>
+        <v>829041.6909113901</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.091870112217875e-06</v>
+        <v>3.03774896168277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>665576.8354466922</v>
+        <v>749919.1154981275</v>
       </c>
     </row>
     <row r="4">
@@ -26488,28 +26488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>453.072763200607</v>
+        <v>504.2467497533979</v>
       </c>
       <c r="AB4" t="n">
-        <v>619.9141427706904</v>
+        <v>689.9326488091696</v>
       </c>
       <c r="AC4" t="n">
-        <v>560.7504070396187</v>
+        <v>624.0864451333759</v>
       </c>
       <c r="AD4" t="n">
-        <v>453072.763200607</v>
+        <v>504246.7497533979</v>
       </c>
       <c r="AE4" t="n">
-        <v>619914.1427706904</v>
+        <v>689932.6488091695</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.34846677268953e-06</v>
+        <v>3.410370681533533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.154296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>560750.4070396187</v>
+        <v>624086.4451333759</v>
       </c>
     </row>
     <row r="5">
@@ -26594,28 +26594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>402.1149551887409</v>
+        <v>453.2036008869602</v>
       </c>
       <c r="AB5" t="n">
-        <v>550.1914217490286</v>
+        <v>620.0931606653101</v>
       </c>
       <c r="AC5" t="n">
-        <v>497.6819246558107</v>
+        <v>560.9123397176292</v>
       </c>
       <c r="AD5" t="n">
-        <v>402114.9551887409</v>
+        <v>453203.6008869602</v>
       </c>
       <c r="AE5" t="n">
-        <v>550191.4217490286</v>
+        <v>620093.1606653101</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.514628293579272e-06</v>
+        <v>3.651665293759378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.28515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>497681.9246558108</v>
+        <v>560912.3397176291</v>
       </c>
     </row>
     <row r="6">
@@ -26700,28 +26700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>389.5455762194246</v>
+        <v>440.6342219176439</v>
       </c>
       <c r="AB6" t="n">
-        <v>532.9934429213461</v>
+        <v>602.8951818376277</v>
       </c>
       <c r="AC6" t="n">
-        <v>482.1252967899275</v>
+        <v>545.3557118517458</v>
       </c>
       <c r="AD6" t="n">
-        <v>389545.5762194246</v>
+        <v>440634.2219176439</v>
       </c>
       <c r="AE6" t="n">
-        <v>532993.4429213461</v>
+        <v>602895.1818376277</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.563878909993765e-06</v>
+        <v>3.723185512917124e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.04752604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>482125.2967899275</v>
+        <v>545355.7118517458</v>
       </c>
     </row>
     <row r="7">
@@ -26806,28 +26806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>364.3462967488295</v>
+        <v>415.5201937930694</v>
       </c>
       <c r="AB7" t="n">
-        <v>498.5146770359285</v>
+        <v>568.5330606048594</v>
       </c>
       <c r="AC7" t="n">
-        <v>450.9371359293623</v>
+        <v>514.2730632418929</v>
       </c>
       <c r="AD7" t="n">
-        <v>364346.2967488295</v>
+        <v>415520.1937930694</v>
       </c>
       <c r="AE7" t="n">
-        <v>498514.6770359285</v>
+        <v>568533.0606048594</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.62356800002212e-06</v>
+        <v>3.809864160027379e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.77408854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>450937.1359293623</v>
+        <v>514273.0632418929</v>
       </c>
     </row>
     <row r="8">
@@ -26912,28 +26912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>347.5362585673705</v>
+        <v>398.7101556116104</v>
       </c>
       <c r="AB8" t="n">
-        <v>475.5144411895118</v>
+        <v>545.5328247584425</v>
       </c>
       <c r="AC8" t="n">
-        <v>430.1320103110938</v>
+        <v>493.4679376236244</v>
       </c>
       <c r="AD8" t="n">
-        <v>347536.2585673705</v>
+        <v>398710.1556116104</v>
       </c>
       <c r="AE8" t="n">
-        <v>475514.4411895118</v>
+        <v>545532.8247584426</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.680600024039673e-06</v>
+        <v>3.892684298204268e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.5234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>430132.0103110938</v>
+        <v>493467.9376236244</v>
       </c>
     </row>
     <row r="9">
@@ -27018,28 +27018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>339.2622946869323</v>
+        <v>390.2655995305799</v>
       </c>
       <c r="AB9" t="n">
-        <v>464.1936387867715</v>
+        <v>533.9786105808554</v>
       </c>
       <c r="AC9" t="n">
-        <v>419.8916494008252</v>
+        <v>483.0164414307048</v>
       </c>
       <c r="AD9" t="n">
-        <v>339262.2946869322</v>
+        <v>390265.5995305799</v>
       </c>
       <c r="AE9" t="n">
-        <v>464193.6387867716</v>
+        <v>533978.6105808554</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.696732210533823e-06</v>
+        <v>3.916110959585418e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.455078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>419891.6494008252</v>
+        <v>483016.4414307048</v>
       </c>
     </row>
     <row r="10">
@@ -27124,28 +27124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>332.9808707910819</v>
+        <v>383.9841756347296</v>
       </c>
       <c r="AB10" t="n">
-        <v>455.5991174956048</v>
+        <v>525.3840892896887</v>
       </c>
       <c r="AC10" t="n">
-        <v>412.1173771592011</v>
+        <v>475.2421691890805</v>
       </c>
       <c r="AD10" t="n">
-        <v>332980.8707910819</v>
+        <v>383984.1756347296</v>
       </c>
       <c r="AE10" t="n">
-        <v>455599.1174956048</v>
+        <v>525384.0892896887</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.714382720462716e-06</v>
+        <v>3.941742483214205e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>412117.3771592011</v>
+        <v>475242.1691890805</v>
       </c>
     </row>
     <row r="11">
@@ -27230,28 +27230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>333.8134326900703</v>
+        <v>384.8167375337179</v>
       </c>
       <c r="AB11" t="n">
-        <v>456.7382654158395</v>
+        <v>526.5232372099232</v>
       </c>
       <c r="AC11" t="n">
-        <v>413.1478064007325</v>
+        <v>476.272598430612</v>
       </c>
       <c r="AD11" t="n">
-        <v>333813.4326900703</v>
+        <v>384816.7375337179</v>
       </c>
       <c r="AE11" t="n">
-        <v>456738.2654158394</v>
+        <v>526523.2372099232</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.713718453960016e-06</v>
+        <v>3.940777855980864e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.38346354166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>413147.8064007325</v>
+        <v>476272.598430612</v>
       </c>
     </row>
   </sheetData>
@@ -27527,28 +27527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.3064561241968</v>
+        <v>278.0308525700068</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.3789654389668</v>
+        <v>380.4140783418191</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.5659554041959</v>
+        <v>344.1078926193874</v>
       </c>
       <c r="AD2" t="n">
-        <v>228306.4561241968</v>
+        <v>278030.8525700068</v>
       </c>
       <c r="AE2" t="n">
-        <v>312378.9654389668</v>
+        <v>380414.0783418191</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.793038339340876e-06</v>
+        <v>4.655828505133275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.21223958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>282565.9554041959</v>
+        <v>344107.8926193874</v>
       </c>
     </row>
   </sheetData>
@@ -27824,28 +27824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>452.5879731345751</v>
+        <v>515.9577087405098</v>
       </c>
       <c r="AB2" t="n">
-        <v>619.2508316149172</v>
+        <v>705.9560995463831</v>
       </c>
       <c r="AC2" t="n">
-        <v>560.1504013695895</v>
+        <v>638.5806402212843</v>
       </c>
       <c r="AD2" t="n">
-        <v>452587.9731345751</v>
+        <v>515957.7087405098</v>
       </c>
       <c r="AE2" t="n">
-        <v>619250.8316149171</v>
+        <v>705956.0995463831</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.212515580459618e-06</v>
+        <v>3.367242112564238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.37760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>560150.4013695895</v>
+        <v>638580.6402212842</v>
       </c>
     </row>
     <row r="3">
@@ -27930,28 +27930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.7870006058842</v>
+        <v>363.3569951147588</v>
       </c>
       <c r="AB3" t="n">
-        <v>432.0737057681998</v>
+        <v>497.1610708952851</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.8371977089368</v>
+        <v>449.7127160589839</v>
       </c>
       <c r="AD3" t="n">
-        <v>315787.0006058842</v>
+        <v>363356.9951147588</v>
       </c>
       <c r="AE3" t="n">
-        <v>432073.7057681998</v>
+        <v>497161.0708952851</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.736119881739857e-06</v>
+        <v>4.164118965844674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.43489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>390837.1977089368</v>
+        <v>449712.7160589839</v>
       </c>
     </row>
     <row r="4">
@@ -28036,28 +28036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>274.1592191174329</v>
+        <v>321.8144649723282</v>
       </c>
       <c r="AB4" t="n">
-        <v>375.1167386475944</v>
+        <v>440.3207484273292</v>
       </c>
       <c r="AC4" t="n">
-        <v>339.3161235907166</v>
+        <v>398.2971541914758</v>
       </c>
       <c r="AD4" t="n">
-        <v>274159.2191174329</v>
+        <v>321814.4649723282</v>
       </c>
       <c r="AE4" t="n">
-        <v>375116.7386475944</v>
+        <v>440320.7484273292</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.908459900265031e-06</v>
+        <v>4.4264043812258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.69596354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>339316.1235907166</v>
+        <v>398297.1541914758</v>
       </c>
     </row>
     <row r="5">
@@ -28142,28 +28142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>270.8798855501734</v>
+        <v>318.5351314050687</v>
       </c>
       <c r="AB5" t="n">
-        <v>370.6298097868835</v>
+        <v>435.8338195666182</v>
       </c>
       <c r="AC5" t="n">
-        <v>335.2574209230277</v>
+        <v>394.238451523787</v>
       </c>
       <c r="AD5" t="n">
-        <v>270879.8855501734</v>
+        <v>318535.1314050687</v>
       </c>
       <c r="AE5" t="n">
-        <v>370629.8097868835</v>
+        <v>435833.8195666182</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.930407385947436e-06</v>
+        <v>4.459806405015997e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.60807291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>335257.4209230277</v>
+        <v>394238.451523787</v>
       </c>
     </row>
   </sheetData>
@@ -28439,28 +28439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>602.860820342497</v>
+        <v>676.1862185191856</v>
       </c>
       <c r="AB2" t="n">
-        <v>824.8607707349233</v>
+        <v>925.187815408529</v>
       </c>
       <c r="AC2" t="n">
-        <v>746.1372164753441</v>
+        <v>836.8891888151926</v>
       </c>
       <c r="AD2" t="n">
-        <v>602860.8203424971</v>
+        <v>676186.2185191856</v>
       </c>
       <c r="AE2" t="n">
-        <v>824860.7707349233</v>
+        <v>925187.815408529</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.89472162049059e-06</v>
+        <v>2.828650169423867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.28841145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>746137.216475344</v>
+        <v>836889.1888151926</v>
       </c>
     </row>
     <row r="3">
@@ -28545,28 +28545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>391.1714418507342</v>
+        <v>440.1688582774723</v>
       </c>
       <c r="AB3" t="n">
-        <v>535.2180240062332</v>
+        <v>602.2584507747501</v>
       </c>
       <c r="AC3" t="n">
-        <v>484.1375669782921</v>
+        <v>544.7797495078516</v>
       </c>
       <c r="AD3" t="n">
-        <v>391171.4418507342</v>
+        <v>440168.8582774723</v>
       </c>
       <c r="AE3" t="n">
-        <v>535218.0240062332</v>
+        <v>602258.4507747501</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.482457626081961e-06</v>
+        <v>3.70608753743262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.193359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>484137.5669782921</v>
+        <v>544779.7495078517</v>
       </c>
     </row>
     <row r="4">
@@ -28651,28 +28651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>322.5193748262779</v>
+        <v>379.512241188353</v>
       </c>
       <c r="AB4" t="n">
-        <v>441.2852371879311</v>
+        <v>519.2653912923322</v>
       </c>
       <c r="AC4" t="n">
-        <v>399.1695934984344</v>
+        <v>469.7074311409453</v>
       </c>
       <c r="AD4" t="n">
-        <v>322519.3748262779</v>
+        <v>379512.241188353</v>
       </c>
       <c r="AE4" t="n">
-        <v>441285.2371879311</v>
+        <v>519265.3912923322</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.73522133881018e-06</v>
+        <v>4.08344118722512e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.97591145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>399169.5934984345</v>
+        <v>469707.4311409453</v>
       </c>
     </row>
     <row r="5">
@@ -28757,28 +28757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>304.5965093332206</v>
+        <v>353.5938362514078</v>
       </c>
       <c r="AB5" t="n">
-        <v>416.7623819193094</v>
+        <v>483.8026862182779</v>
       </c>
       <c r="AC5" t="n">
-        <v>376.9871651186065</v>
+        <v>437.6292368669394</v>
       </c>
       <c r="AD5" t="n">
-        <v>304596.5093332206</v>
+        <v>353593.8362514077</v>
       </c>
       <c r="AE5" t="n">
-        <v>416762.3819193094</v>
+        <v>483802.6862182779</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.80686455674907e-06</v>
+        <v>4.19039811344019e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.669921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>376987.1651186065</v>
+        <v>437629.2368669395</v>
       </c>
     </row>
     <row r="6">
@@ -28863,28 +28863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>291.5580889955363</v>
+        <v>340.3848237131311</v>
       </c>
       <c r="AB6" t="n">
-        <v>398.9226399987811</v>
+        <v>465.7295325229026</v>
       </c>
       <c r="AC6" t="n">
-        <v>360.8500231287383</v>
+        <v>421.2809595944202</v>
       </c>
       <c r="AD6" t="n">
-        <v>291558.0889955363</v>
+        <v>340384.8237131311</v>
       </c>
       <c r="AE6" t="n">
-        <v>398922.639998781</v>
+        <v>465729.5325229025</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.85637082532482e-06</v>
+        <v>4.26430655121802e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.46809895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>360850.0231287383</v>
+        <v>421280.9595944202</v>
       </c>
     </row>
     <row r="7">
@@ -28969,28 +28969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>292.839022473447</v>
+        <v>341.6657571910419</v>
       </c>
       <c r="AB7" t="n">
-        <v>400.6752696940552</v>
+        <v>467.4821622181767</v>
       </c>
       <c r="AC7" t="n">
-        <v>362.4353843057268</v>
+        <v>422.8663207714086</v>
       </c>
       <c r="AD7" t="n">
-        <v>292839.022473447</v>
+        <v>341665.7571910419</v>
       </c>
       <c r="AE7" t="n">
-        <v>400675.2696940552</v>
+        <v>467482.1622181767</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.854458997879822e-06</v>
+        <v>4.261452363580259e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.474609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>362435.3843057267</v>
+        <v>422866.3207714086</v>
       </c>
     </row>
   </sheetData>
